--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Vcam1-Itgb7.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Vcam1-Itgb7.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.75409564293172</v>
+        <v>7.312497333333334</v>
       </c>
       <c r="H2">
-        <v>3.75409564293172</v>
+        <v>21.937492</v>
       </c>
       <c r="I2">
-        <v>0.03319955205189667</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="J2">
-        <v>0.03319955205189667</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.53867990953598</v>
+        <v>3.722831</v>
       </c>
       <c r="N2">
-        <v>2.53867990953598</v>
+        <v>11.168493</v>
       </c>
       <c r="O2">
-        <v>0.2049185942840075</v>
+        <v>0.2042994277655142</v>
       </c>
       <c r="P2">
-        <v>0.2049185942840075</v>
+        <v>0.2042994277655142</v>
       </c>
       <c r="Q2">
-        <v>9.530447187187315</v>
+        <v>27.22319175995067</v>
       </c>
       <c r="R2">
-        <v>9.530447187187315</v>
+        <v>245.008725839556</v>
       </c>
       <c r="S2">
-        <v>0.006803205537333405</v>
+        <v>0.01219784557552691</v>
       </c>
       <c r="T2">
-        <v>0.006803205537333405</v>
+        <v>0.01219784557552691</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.75409564293172</v>
+        <v>7.312497333333334</v>
       </c>
       <c r="H3">
-        <v>3.75409564293172</v>
+        <v>21.937492</v>
       </c>
       <c r="I3">
-        <v>0.03319955205189667</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="J3">
-        <v>0.03319955205189667</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.60388323955622</v>
+        <v>1.746044</v>
       </c>
       <c r="N3">
-        <v>1.60388323955622</v>
+        <v>5.238131999999999</v>
       </c>
       <c r="O3">
-        <v>0.1294631503605408</v>
+        <v>0.09581842153280916</v>
       </c>
       <c r="P3">
-        <v>0.1294631503605408</v>
+        <v>0.09581842153280916</v>
       </c>
       <c r="Q3">
-        <v>6.021131081389217</v>
+        <v>12.76794209388266</v>
       </c>
       <c r="R3">
-        <v>6.021131081389217</v>
+        <v>114.911478844944</v>
       </c>
       <c r="S3">
-        <v>0.004298118599197299</v>
+        <v>0.00572090838398931</v>
       </c>
       <c r="T3">
-        <v>0.004298118599197299</v>
+        <v>0.00572090838398931</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.75409564293172</v>
+        <v>7.312497333333334</v>
       </c>
       <c r="H4">
-        <v>3.75409564293172</v>
+        <v>21.937492</v>
       </c>
       <c r="I4">
-        <v>0.03319955205189667</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="J4">
-        <v>0.03319955205189667</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.96793098968994</v>
+        <v>11.46242466666667</v>
       </c>
       <c r="N4">
-        <v>6.96793098968994</v>
+        <v>34.387274</v>
       </c>
       <c r="O4">
-        <v>0.5624413767611294</v>
+        <v>0.6290285001401661</v>
       </c>
       <c r="P4">
-        <v>0.5624413767611294</v>
+        <v>0.6290285001401661</v>
       </c>
       <c r="Q4">
-        <v>26.15827936864391</v>
+        <v>83.81894980853421</v>
       </c>
       <c r="R4">
-        <v>26.15827936864391</v>
+        <v>754.370548276808</v>
       </c>
       <c r="S4">
-        <v>0.01867280176392154</v>
+        <v>0.03755660302740321</v>
       </c>
       <c r="T4">
-        <v>0.01867280176392154</v>
+        <v>0.03755660302740321</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.75409564293172</v>
+        <v>7.312497333333334</v>
       </c>
       <c r="H5">
-        <v>3.75409564293172</v>
+        <v>21.937492</v>
       </c>
       <c r="I5">
-        <v>0.03319955205189667</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="J5">
-        <v>0.03319955205189667</v>
+        <v>0.05970572560549242</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.27822987333698</v>
+        <v>1.291125333333333</v>
       </c>
       <c r="N5">
-        <v>1.27822987333698</v>
+        <v>3.873376</v>
       </c>
       <c r="O5">
-        <v>0.1031768785943223</v>
+        <v>0.07085365056151052</v>
       </c>
       <c r="P5">
-        <v>0.1031768785943223</v>
+        <v>0.07085365056151052</v>
       </c>
       <c r="Q5">
-        <v>4.798597198159521</v>
+        <v>9.441350556999112</v>
       </c>
       <c r="R5">
-        <v>4.798597198159521</v>
+        <v>84.972155012992</v>
       </c>
       <c r="S5">
-        <v>0.003425426151444427</v>
+        <v>0.004230368618572991</v>
       </c>
       <c r="T5">
-        <v>0.003425426151444427</v>
+        <v>0.004230368618572991</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.6726321598774</v>
+        <v>29.68221266666667</v>
       </c>
       <c r="H6">
-        <v>29.6726321598774</v>
+        <v>89.046638</v>
       </c>
       <c r="I6">
-        <v>0.2624115604948509</v>
+        <v>0.242351957758873</v>
       </c>
       <c r="J6">
-        <v>0.2624115604948509</v>
+        <v>0.242351957758873</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.53867990953598</v>
+        <v>3.722831</v>
       </c>
       <c r="N6">
-        <v>2.53867990953598</v>
+        <v>11.168493</v>
       </c>
       <c r="O6">
-        <v>0.2049185942840075</v>
+        <v>0.2042994277655142</v>
       </c>
       <c r="P6">
-        <v>0.2049185942840075</v>
+        <v>0.2042994277655142</v>
       </c>
       <c r="Q6">
-        <v>75.32931512733197</v>
+        <v>110.5018614640593</v>
       </c>
       <c r="R6">
-        <v>75.32931512733197</v>
+        <v>994.5167531765341</v>
       </c>
       <c r="S6">
-        <v>0.05377300810047765</v>
+        <v>0.04951236628798983</v>
       </c>
       <c r="T6">
-        <v>0.05377300810047765</v>
+        <v>0.04951236628798982</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.6726321598774</v>
+        <v>29.68221266666667</v>
       </c>
       <c r="H7">
-        <v>29.6726321598774</v>
+        <v>89.046638</v>
       </c>
       <c r="I7">
-        <v>0.2624115604948509</v>
+        <v>0.242351957758873</v>
       </c>
       <c r="J7">
-        <v>0.2624115604948509</v>
+        <v>0.242351957758873</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.60388323955622</v>
+        <v>1.746044</v>
       </c>
       <c r="N7">
-        <v>1.60388323955622</v>
+        <v>5.238131999999999</v>
       </c>
       <c r="O7">
-        <v>0.1294631503605408</v>
+        <v>0.09581842153280916</v>
       </c>
       <c r="P7">
-        <v>0.1294631503605408</v>
+        <v>0.09581842153280916</v>
       </c>
       <c r="Q7">
-        <v>47.59143739474424</v>
+        <v>51.82644933335732</v>
       </c>
       <c r="R7">
-        <v>47.59143739474424</v>
+        <v>466.4380440002159</v>
       </c>
       <c r="S7">
-        <v>0.03397262731268903</v>
+        <v>0.02322178204784125</v>
       </c>
       <c r="T7">
-        <v>0.03397262731268903</v>
+        <v>0.02322178204784125</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.6726321598774</v>
+        <v>29.68221266666667</v>
       </c>
       <c r="H8">
-        <v>29.6726321598774</v>
+        <v>89.046638</v>
       </c>
       <c r="I8">
-        <v>0.2624115604948509</v>
+        <v>0.242351957758873</v>
       </c>
       <c r="J8">
-        <v>0.2624115604948509</v>
+        <v>0.242351957758873</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.96793098968994</v>
+        <v>11.46242466666667</v>
       </c>
       <c r="N8">
-        <v>6.96793098968994</v>
+        <v>34.387274</v>
       </c>
       <c r="O8">
-        <v>0.5624413767611294</v>
+        <v>0.6290285001401661</v>
       </c>
       <c r="P8">
-        <v>0.5624413767611294</v>
+        <v>0.6290285001401661</v>
       </c>
       <c r="Q8">
-        <v>206.75685317248</v>
+        <v>340.2301266316458</v>
       </c>
       <c r="R8">
-        <v>206.75685317248</v>
+        <v>3062.071139684812</v>
       </c>
       <c r="S8">
-        <v>0.1475911193627603</v>
+        <v>0.1524462884950968</v>
       </c>
       <c r="T8">
-        <v>0.1475911193627603</v>
+        <v>0.1524462884950968</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.6726321598774</v>
+        <v>29.68221266666667</v>
       </c>
       <c r="H9">
-        <v>29.6726321598774</v>
+        <v>89.046638</v>
       </c>
       <c r="I9">
-        <v>0.2624115604948509</v>
+        <v>0.242351957758873</v>
       </c>
       <c r="J9">
-        <v>0.2624115604948509</v>
+        <v>0.242351957758873</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.27822987333698</v>
+        <v>1.291125333333333</v>
       </c>
       <c r="N9">
-        <v>1.27822987333698</v>
+        <v>3.873376</v>
       </c>
       <c r="O9">
-        <v>0.1031768785943223</v>
+        <v>0.07085365056151052</v>
       </c>
       <c r="P9">
-        <v>0.1031768785943223</v>
+        <v>0.07085365056151052</v>
       </c>
       <c r="Q9">
-        <v>37.92844484729488</v>
+        <v>38.32345672332089</v>
       </c>
       <c r="R9">
-        <v>37.92844484729488</v>
+        <v>344.911110509888</v>
       </c>
       <c r="S9">
-        <v>0.02707480571892389</v>
+        <v>0.01717152092794515</v>
       </c>
       <c r="T9">
-        <v>0.02707480571892389</v>
+        <v>0.01717152092794514</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>7.40009466295379</v>
+        <v>11.06470466666667</v>
       </c>
       <c r="H10">
-        <v>7.40009466295379</v>
+        <v>33.194114</v>
       </c>
       <c r="I10">
-        <v>0.06544314565194087</v>
+        <v>0.09034208022509747</v>
       </c>
       <c r="J10">
-        <v>0.06544314565194087</v>
+        <v>0.09034208022509749</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.53867990953598</v>
+        <v>3.722831</v>
       </c>
       <c r="N10">
-        <v>2.53867990953598</v>
+        <v>11.168493</v>
       </c>
       <c r="O10">
-        <v>0.2049185942840075</v>
+        <v>0.2042994277655142</v>
       </c>
       <c r="P10">
-        <v>0.2049185942840075</v>
+        <v>0.2042994277655142</v>
       </c>
       <c r="Q10">
-        <v>18.78647164950522</v>
+        <v>41.19202553891133</v>
       </c>
       <c r="R10">
-        <v>18.78647164950522</v>
+        <v>370.728229850202</v>
       </c>
       <c r="S10">
-        <v>0.01341051741251928</v>
+        <v>0.01845683529313359</v>
       </c>
       <c r="T10">
-        <v>0.01341051741251928</v>
+        <v>0.0184568352931336</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.40009466295379</v>
+        <v>11.06470466666667</v>
       </c>
       <c r="H11">
-        <v>7.40009466295379</v>
+        <v>33.194114</v>
       </c>
       <c r="I11">
-        <v>0.06544314565194087</v>
+        <v>0.09034208022509747</v>
       </c>
       <c r="J11">
-        <v>0.06544314565194087</v>
+        <v>0.09034208022509749</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.60388323955622</v>
+        <v>1.746044</v>
       </c>
       <c r="N11">
-        <v>1.60388323955622</v>
+        <v>5.238131999999999</v>
       </c>
       <c r="O11">
-        <v>0.1294631503605408</v>
+        <v>0.09581842153280916</v>
       </c>
       <c r="P11">
-        <v>0.1294631503605408</v>
+        <v>0.09581842153280916</v>
       </c>
       <c r="Q11">
-        <v>11.86888780104102</v>
+        <v>19.31946119500533</v>
       </c>
       <c r="R11">
-        <v>11.86888780104102</v>
+        <v>173.875150755048</v>
       </c>
       <c r="S11">
-        <v>0.008472475805603992</v>
+        <v>0.008656435525159252</v>
       </c>
       <c r="T11">
-        <v>0.008472475805603992</v>
+        <v>0.008656435525159253</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.40009466295379</v>
+        <v>11.06470466666667</v>
       </c>
       <c r="H12">
-        <v>7.40009466295379</v>
+        <v>33.194114</v>
       </c>
       <c r="I12">
-        <v>0.06544314565194087</v>
+        <v>0.09034208022509747</v>
       </c>
       <c r="J12">
-        <v>0.06544314565194087</v>
+        <v>0.09034208022509749</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.96793098968994</v>
+        <v>11.46242466666667</v>
       </c>
       <c r="N12">
-        <v>6.96793098968994</v>
+        <v>34.387274</v>
       </c>
       <c r="O12">
-        <v>0.5624413767611294</v>
+        <v>0.6290285001401661</v>
       </c>
       <c r="P12">
-        <v>0.5624413767611294</v>
+        <v>0.6290285001401661</v>
       </c>
       <c r="Q12">
-        <v>51.56334892863484</v>
+        <v>126.8283437005818</v>
       </c>
       <c r="R12">
-        <v>51.56334892863484</v>
+        <v>1141.455093305236</v>
       </c>
       <c r="S12">
-        <v>0.03680793294005674</v>
+        <v>0.05682774322353562</v>
       </c>
       <c r="T12">
-        <v>0.03680793294005674</v>
+        <v>0.05682774322353563</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.40009466295379</v>
+        <v>11.06470466666667</v>
       </c>
       <c r="H13">
-        <v>7.40009466295379</v>
+        <v>33.194114</v>
       </c>
       <c r="I13">
-        <v>0.06544314565194087</v>
+        <v>0.09034208022509747</v>
       </c>
       <c r="J13">
-        <v>0.06544314565194087</v>
+        <v>0.09034208022509749</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.27822987333698</v>
+        <v>1.291125333333333</v>
       </c>
       <c r="N13">
-        <v>1.27822987333698</v>
+        <v>3.873376</v>
       </c>
       <c r="O13">
-        <v>0.1031768785943223</v>
+        <v>0.07085365056151052</v>
       </c>
       <c r="P13">
-        <v>0.1031768785943223</v>
+        <v>0.07085365056151052</v>
       </c>
       <c r="Q13">
-        <v>9.459022063709083</v>
+        <v>14.28592050098489</v>
       </c>
       <c r="R13">
-        <v>9.459022063709083</v>
+        <v>128.573284508864</v>
       </c>
       <c r="S13">
-        <v>0.006752219493760855</v>
+        <v>0.006401066183269006</v>
       </c>
       <c r="T13">
-        <v>0.006752219493760855</v>
+        <v>0.006401066183269007</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>72.2498731795101</v>
+        <v>74.41623166666666</v>
       </c>
       <c r="H14">
-        <v>72.2498731795101</v>
+        <v>223.248695</v>
       </c>
       <c r="I14">
-        <v>0.6389457418013116</v>
+        <v>0.6076002364105371</v>
       </c>
       <c r="J14">
-        <v>0.6389457418013116</v>
+        <v>0.6076002364105371</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.53867990953598</v>
+        <v>3.722831</v>
       </c>
       <c r="N14">
-        <v>2.53867990953598</v>
+        <v>11.168493</v>
       </c>
       <c r="O14">
-        <v>0.2049185942840075</v>
+        <v>0.2042994277655142</v>
       </c>
       <c r="P14">
-        <v>0.2049185942840075</v>
+        <v>0.2042994277655142</v>
       </c>
       <c r="Q14">
-        <v>183.4193015073447</v>
+        <v>277.0390541518483</v>
       </c>
       <c r="R14">
-        <v>183.4193015073447</v>
+        <v>2493.351487366635</v>
       </c>
       <c r="S14">
-        <v>0.1309318632336772</v>
+        <v>0.1241323806088639</v>
       </c>
       <c r="T14">
-        <v>0.1309318632336772</v>
+        <v>0.1241323806088639</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>72.2498731795101</v>
+        <v>74.41623166666666</v>
       </c>
       <c r="H15">
-        <v>72.2498731795101</v>
+        <v>223.248695</v>
       </c>
       <c r="I15">
-        <v>0.6389457418013116</v>
+        <v>0.6076002364105371</v>
       </c>
       <c r="J15">
-        <v>0.6389457418013116</v>
+        <v>0.6076002364105371</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.60388323955622</v>
+        <v>1.746044</v>
       </c>
       <c r="N15">
-        <v>1.60388323955622</v>
+        <v>5.238131999999999</v>
       </c>
       <c r="O15">
-        <v>0.1294631503605408</v>
+        <v>0.09581842153280916</v>
       </c>
       <c r="P15">
-        <v>0.1294631503605408</v>
+        <v>0.09581842153280916</v>
       </c>
       <c r="Q15">
-        <v>115.8803606526787</v>
+        <v>129.9340148041933</v>
       </c>
       <c r="R15">
-        <v>115.8803606526787</v>
+        <v>1169.40613323774</v>
       </c>
       <c r="S15">
-        <v>0.08271992864305047</v>
+        <v>0.05821929557581934</v>
       </c>
       <c r="T15">
-        <v>0.08271992864305047</v>
+        <v>0.05821929557581934</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>72.2498731795101</v>
+        <v>74.41623166666666</v>
       </c>
       <c r="H16">
-        <v>72.2498731795101</v>
+        <v>223.248695</v>
       </c>
       <c r="I16">
-        <v>0.6389457418013116</v>
+        <v>0.6076002364105371</v>
       </c>
       <c r="J16">
-        <v>0.6389457418013116</v>
+        <v>0.6076002364105371</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.96793098968994</v>
+        <v>11.46242466666667</v>
       </c>
       <c r="N16">
-        <v>6.96793098968994</v>
+        <v>34.387274</v>
       </c>
       <c r="O16">
-        <v>0.5624413767611294</v>
+        <v>0.6290285001401661</v>
       </c>
       <c r="P16">
-        <v>0.5624413767611294</v>
+        <v>0.6290285001401661</v>
       </c>
       <c r="Q16">
-        <v>503.4321303286765</v>
+        <v>852.9904494563809</v>
       </c>
       <c r="R16">
-        <v>503.4321303286765</v>
+        <v>7676.914045107429</v>
       </c>
       <c r="S16">
-        <v>0.3593695226943908</v>
+        <v>0.3821978653941305</v>
       </c>
       <c r="T16">
-        <v>0.3593695226943908</v>
+        <v>0.3821978653941305</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>72.2498731795101</v>
+        <v>74.41623166666666</v>
       </c>
       <c r="H17">
-        <v>72.2498731795101</v>
+        <v>223.248695</v>
       </c>
       <c r="I17">
-        <v>0.6389457418013116</v>
+        <v>0.6076002364105371</v>
       </c>
       <c r="J17">
-        <v>0.6389457418013116</v>
+        <v>0.6076002364105371</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.27822987333698</v>
+        <v>1.291125333333333</v>
       </c>
       <c r="N17">
-        <v>1.27822987333698</v>
+        <v>3.873376</v>
       </c>
       <c r="O17">
-        <v>0.1031768785943223</v>
+        <v>0.07085365056151052</v>
       </c>
       <c r="P17">
-        <v>0.1031768785943223</v>
+        <v>0.07085365056151052</v>
       </c>
       <c r="Q17">
-        <v>92.35194624285806</v>
+        <v>96.08068191603554</v>
       </c>
       <c r="R17">
-        <v>92.35194624285806</v>
+        <v>864.7261372443199</v>
       </c>
       <c r="S17">
-        <v>0.06592442723019312</v>
+        <v>0.04305069483172338</v>
       </c>
       <c r="T17">
-        <v>0.06592442723019312</v>
+        <v>0.04305069483172338</v>
       </c>
     </row>
   </sheetData>
